--- a/Simulation Data.xlsx
+++ b/Simulation Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmiller/Dropbox/Simulation/Multi/Submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmiller/Dropbox/Simulation/Multi/Supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF5EE10-0867-F84B-8E27-48E878D31747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F61E43C-1CB8-3847-AAEE-156592E24A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{348A3501-E454-3D44-A676-1F56D94BB73C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
     <t>Process</t>
   </si>
@@ -107,17 +107,24 @@
   <si>
     <t>% Lg Cluster</t>
   </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Averages </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -286,6 +293,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -629,7 +643,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -644,8 +658,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -658,6 +671,9 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1925,589 +1941,842 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75F54B0-0E75-A24B-8633-2B4143A64CEF}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3.85</v>
-      </c>
-      <c r="D3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2.1000000000000001E-2</v>
       </c>
       <c r="B4" s="1">
         <v>3.85</v>
       </c>
-      <c r="D4" s="6">
+      <c r="C4" s="1">
+        <v>3.2811262507992911</v>
+      </c>
+      <c r="E4" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.675415633166782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.2811262507992911</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.845947154231498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>0.02</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>6.55</v>
       </c>
-      <c r="D5" s="6">
+      <c r="C6" s="1">
+        <v>1.4805315546149385</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7.8128698742852887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20.25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.2846332808205063</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2">
+        <v>29.791674334436507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>68.55</v>
+      </c>
+      <c r="C8" s="1">
+        <v>27.654587037425209</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="3">
+        <v>723</v>
+      </c>
+      <c r="G8" s="2">
+        <v>475.90326551585559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>1.6999999999999998E-2</v>
+      </c>
+      <c r="B9" s="19">
+        <v>223.55</v>
+      </c>
+      <c r="C9" s="1">
+        <v>53.354695694302094</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1946</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1594.3045670860945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.5999999999999997E-2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>645.9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>96.473173255028442</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4864</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3703.9914554105526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1.4999999999999996E-2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1311.95</v>
+      </c>
+      <c r="C11" s="2">
+        <v>312.96737239560696</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>15302</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3410.120911944171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1.3999999999999995E-2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1461.15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>280.93443957995834</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>49404</v>
+      </c>
+      <c r="G12" s="2">
+        <v>12765.249235795345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.2999999999999994E-2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5330.95</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1026.0706487295165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1.1999999999999993E-2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7628.95</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1436.1420239747586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1.0999999999999992E-2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>17121.8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2733.529069093458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>9.9999999999999915E-3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>47006.25</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9570.9134590929989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8.9999999999999906E-3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>107866.6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15958.274657500124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="E18" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19"/>
+      <c r="E19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.7848411399160546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>1.3999999999999985E-2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5.45</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.5618393340107548</v>
+      </c>
+      <c r="E21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.98835322899414757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>1.4999999999999986E-2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.2272482983103989</v>
+      </c>
+      <c r="E22">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.9633020523163176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>1.5999999999999986E-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.113257429915991</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1.999999999999999E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.9393559136900906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>1.6999999999999987E-2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9.15</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.1582353291548539</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>22.35</v>
+      </c>
+      <c r="G24" s="1">
+        <v>13.294889204027553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>1.7999999999999988E-2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10.162599128797297</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>123165.75</v>
+      </c>
+      <c r="G25" s="2">
+        <v>84771.002567315212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>1.8999999999999989E-2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>19.75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5.9981905166211753</v>
+      </c>
+      <c r="E26" s="7">
         <v>2.3E-2</v>
       </c>
-      <c r="E5" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="F26" s="2">
+        <v>268958.55</v>
+      </c>
+      <c r="G26" s="2">
+        <v>185130.46080519704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>1.999999999999999E-2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>145776.4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>57976.350331447531</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>820969.65</v>
+      </c>
+      <c r="G27" s="2">
+        <v>376683.42178364884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>277499.8</v>
+      </c>
+      <c r="C28" s="2">
+        <v>97242.797340081743</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1105523.8999999999</v>
+      </c>
+      <c r="G28" s="2">
+        <v>507255.93149212835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>315095.5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>125205.89497191583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="2"/>
+      <c r="E30" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31"/>
+      <c r="E31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G45" si="0">F32*(1-F32)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="17">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f>B33*(1-B33)/10</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="B34" s="16">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C46" si="1">B34*(1-B34)/10</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="17">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="G34" s="21">
+        <f t="shared" ref="G34:G45" si="2">SQRT(F34*(1-F34))/10</f>
+        <v>1.7058722109231979E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="17">
         <v>1.9E-2</v>
       </c>
-      <c r="B6" s="1">
-        <v>20.25</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B35" s="16">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="G35" s="21">
+        <f t="shared" si="2"/>
+        <v>3.6660605559646717E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="B36" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="C36" s="21">
+        <f>SQRT(B36*(1-B36))/10</f>
+        <v>3.1288975694324032E-2</v>
+      </c>
+      <c r="E36" s="17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" si="2"/>
+        <v>3.9230090491866064E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B37" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="C37" s="21">
+        <f t="shared" ref="C37:C46" si="3">SQRT(B37*(1-B37))/10</f>
+        <v>3.9230090491866064E-2</v>
+      </c>
+      <c r="E37" s="17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="G37" s="21">
+        <f t="shared" si="2"/>
+        <v>4.2083250825001625E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="17">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E6" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>68.55</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>1.6999999999999998E-2</v>
-      </c>
-      <c r="B8" s="10">
-        <v>223.55</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="E8" s="3">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1.5999999999999997E-2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>645.9</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1.4999999999999996E-2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1311.95</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1.3999999999999995E-2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1461.15</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>15302</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1.2999999999999994E-2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5330.95</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E12" s="3">
-        <v>49404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1.1999999999999993E-2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7628.95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1.0999999999999992E-2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>17121.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>9.9999999999999915E-3</v>
-      </c>
-      <c r="B15" s="1">
-        <v>47006.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>8.9999999999999906E-3</v>
-      </c>
-      <c r="B16" s="1">
-        <v>107866.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18"/>
-      <c r="D18" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>1.3999999999999985E-2</v>
-      </c>
-      <c r="B20" s="1">
-        <v>5.45</v>
-      </c>
-      <c r="D20">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4.8499999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>1.4999999999999986E-2</v>
-      </c>
-      <c r="B21" s="1">
-        <v>9.25</v>
-      </c>
-      <c r="D21">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>1.5999999999999986E-2</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3.55</v>
-      </c>
-      <c r="D22">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>9.4499999999999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>1.6999999999999987E-2</v>
-      </c>
-      <c r="B23" s="1">
-        <v>9.15</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1.999999999999999E-2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>1.7999999999999988E-2</v>
-      </c>
-      <c r="B24" s="2">
-        <v>20.9</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>22.35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>1.8999999999999989E-2</v>
-      </c>
-      <c r="B25" s="2">
-        <v>19.75</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E25" s="2">
-        <v>123165.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>1.999999999999999E-2</v>
-      </c>
-      <c r="B26" s="2">
-        <v>145776.4</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="B38" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="C38" s="21">
+        <f t="shared" si="3"/>
+        <v>4.6647615158762402E-2</v>
+      </c>
+      <c r="E38" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0.34</v>
+      </c>
+      <c r="G38" s="21">
+        <f t="shared" si="2"/>
+        <v>4.7370877129308042E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
         <v>2.3E-2</v>
       </c>
-      <c r="E26" s="2">
-        <v>268958.55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="B27" s="2">
-        <v>277499.8</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="B39" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="C39" s="21">
+        <f t="shared" si="3"/>
+        <v>4.7696960070847283E-2</v>
+      </c>
+      <c r="E39" s="17">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="G39" s="21">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="17">
         <v>2.4E-2</v>
       </c>
-      <c r="E27" s="2">
-        <v>820969.65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="B28" s="2">
-        <v>315095.5</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="B40" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="C40" s="21">
+        <f t="shared" si="3"/>
+        <v>4.9355850717012269E-2</v>
+      </c>
+      <c r="E40" s="17">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="G40" s="21">
+        <f t="shared" si="2"/>
+        <v>4.9839743177508451E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="17">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E28" s="2">
-        <v>1105523.8999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30"/>
-      <c r="D30" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="18">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="B32" s="17">
-        <v>0</v>
-      </c>
-      <c r="D32" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="18">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="B33" s="17">
-        <v>0</v>
-      </c>
-      <c r="D33" s="18">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
-        <v>1.9E-2</v>
-      </c>
-      <c r="B34" s="17">
-        <v>0</v>
-      </c>
-      <c r="D34" s="18">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E34" s="17">
+      <c r="B41" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C41" s="21">
+        <f t="shared" si="3"/>
+        <v>4.9638694583963423E-2</v>
+      </c>
+      <c r="E41" s="17">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G41" s="21">
+        <f t="shared" si="2"/>
+        <v>4.9355850717012269E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="B42" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="21">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="E42" s="17">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="B35" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="D35" s="18">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E35" s="17">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="18">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="B36" s="17">
-        <v>0.19</v>
-      </c>
-      <c r="D36" s="18">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E36" s="17">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="18">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="B37" s="17">
-        <v>0.32</v>
-      </c>
-      <c r="D37" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E37" s="17">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="18">
-        <v>2.3E-2</v>
-      </c>
-      <c r="B38" s="17">
-        <v>0.35</v>
-      </c>
-      <c r="D38" s="18">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E38" s="17">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="18">
-        <v>2.4E-2</v>
-      </c>
-      <c r="B39" s="17">
-        <v>0.42</v>
-      </c>
-      <c r="D39" s="18">
+      <c r="F42" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="G42" s="21">
+        <f t="shared" si="2"/>
+        <v>4.9959983987187186E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="17">
         <v>2.7E-2</v>
       </c>
-      <c r="E39" s="17">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="B40" s="17">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D40" s="18">
+      <c r="B43" s="16">
+        <v>0.62</v>
+      </c>
+      <c r="C43" s="21">
+        <f t="shared" si="3"/>
+        <v>4.8538644398046386E-2</v>
+      </c>
+      <c r="E43" s="17">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="G43" s="21">
+        <f t="shared" si="2"/>
+        <v>4.8280430818293245E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="17">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E40" s="17">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="18">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="B41" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="18">
+      <c r="B44" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C44" s="21">
+        <f t="shared" si="3"/>
+        <v>4.9507575177946253E-2</v>
+      </c>
+      <c r="E44" s="17">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0.62</v>
+      </c>
+      <c r="G44" s="21">
+        <f t="shared" si="2"/>
+        <v>4.8538644398046386E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="17">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="E41" s="17">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="18">
-        <v>2.7E-2</v>
-      </c>
-      <c r="B42" s="17">
-        <v>0.62</v>
-      </c>
-      <c r="D42" s="18">
+      <c r="B45" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="C45" s="21">
+        <f t="shared" si="3"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E45" s="17">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F45" s="16">
+        <v>0.61</v>
+      </c>
+      <c r="G45" s="21">
+        <f t="shared" si="2"/>
+        <v>4.8774993593028795E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="17">
         <v>0.03</v>
       </c>
-      <c r="E42" s="17">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="18">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="B43" s="17">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D43" s="18">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E43" s="17">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="18">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="B44" s="17">
-        <v>0.64</v>
-      </c>
-      <c r="D44" s="18">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E44" s="17">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="B45" s="17">
+      <c r="B46" s="16">
         <v>0.66</v>
       </c>
-      <c r="D45" s="18">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E45" s="17">
-        <v>0.61</v>
+      <c r="C46" s="21">
+        <f t="shared" si="3"/>
+        <v>4.7370877129308042E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2789,7 @@
   <dimension ref="A1:N361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6283,9 +6552,9 @@
       <c r="F175">
         <v>175</v>
       </c>
-      <c r="H175" s="11"/>
-      <c r="I175" s="11"/>
-      <c r="J175" s="11"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="10"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
@@ -6959,9 +7228,9 @@
       <c r="F206">
         <v>18</v>
       </c>
-      <c r="H206" s="11"/>
-      <c r="I206" s="11"/>
-      <c r="J206" s="11"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="10"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207">
@@ -7755,9 +8024,9 @@
       <c r="F243">
         <v>3</v>
       </c>
-      <c r="H243" s="11"/>
-      <c r="I243" s="11"/>
-      <c r="J243" s="11"/>
+      <c r="H243" s="10"/>
+      <c r="I243" s="10"/>
+      <c r="J243" s="10"/>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244">
@@ -14016,9 +14285,9 @@
       <c r="F175">
         <v>1</v>
       </c>
-      <c r="H175" s="11"/>
-      <c r="I175" s="11"/>
-      <c r="J175" s="11"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="10"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
@@ -14672,9 +14941,9 @@
       <c r="F205" s="6">
         <v>1</v>
       </c>
-      <c r="H205" s="11"/>
-      <c r="I205" s="11"/>
-      <c r="J205" s="11"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="10"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
